--- a/datasets/itpeu_spd/evaluations/llamaindex/data/ITPEU_SPD_S003_01_GM_command-r_EM_embed-english-v3.0_P_1024_K_3_RR_COHERE_N_10_2024-04-12.xlsx
+++ b/datasets/itpeu_spd/evaluations/llamaindex/data/ITPEU_SPD_S003_01_GM_command-r_EM_embed-english-v3.0_P_1024_K_3_RR_COHERE_N_10_2024-04-12.xlsx
@@ -521,17 +521,17 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>reranker</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>run_date</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>eval_name</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>reranker</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
+          <t>COHERE</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
           <t>2024-04-12</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>ITPEU_SPD</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>COHERE</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -683,17 +683,17 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
+          <t>COHERE</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
           <t>2024-04-12</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>ITPEU_SPD</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>COHERE</t>
         </is>
       </c>
     </row>
@@ -766,17 +766,17 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
+          <t>COHERE</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
           <t>2024-04-12</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>ITPEU_SPD</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>COHERE</t>
         </is>
       </c>
     </row>
@@ -847,17 +847,17 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
+          <t>COHERE</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
           <t>2024-04-12</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>ITPEU_SPD</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>COHERE</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -928,17 +928,17 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
+          <t>COHERE</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
           <t>2024-04-12</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>ITPEU_SPD</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>COHERE</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
         <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
+          <t>COHERE</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
           <t>2024-04-12</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>ITPEU_SPD</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>COHERE</t>
         </is>
       </c>
     </row>
@@ -1839,10 +1839,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26.5</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1869,10 +1869,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.416666666666667</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9666666666666667</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user's query about coverage for their disabled daughter but contains significant inaccuracies and omissions compared to the reference answer. It incorrectly suggests that coverage is only for those under 26 years old and fails to clarify that disabled individuals who were incapacitated before the age of 26 can remain covered beyond this age, as detailed in the reference answer.</t>
+          <t>The generated answer is relevant to the user's query about coverage for their disabled daughter but contains significant inaccuracies and omissions compared to the reference answer. It incorrectly suggests that coverage is only for those under 26 years old without clearly stating that disabled individuals who depended on their parents before reaching 26 can remain covered beyond this age, as detailed in the reference answer.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -1988,11 +1988,11 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>The generated answer is relevant and mostly correct, aligning well with the reference answer. It accurately states that treatment for lymphoma is covered, mentions the necessity for treatments to be medically appropriate and meet established criteria, and highlights the requirement for pre-certification. However, it lacks the specific detail about autologous bone marrow transplants and the specific stages of non-Hodgkin's lymphoma that are covered, which are present in the reference answer. This omission makes the answer slightly less informative but does not introduce inaccuracies.</t>
+          <t>The generated answer is relevant and mostly correct, aligning well with the reference answer. It correctly states that treatment for lymphoma is covered and mentions the necessity for treatments to be medically appropriate and meet established criteria, including pre-certification. However, it lacks the specific detail provided in the reference answer about autologous bone marrow transplants and the specific stages of non-Hodgkin's lymphoma that are covered, which prevents a perfect score.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>The generated answer is relevant and fully correct, providing specific details about the coverage of flu vaccines under the ITPEU Health and Welfare Plan, including the effective date and the categorization under preventive care for both children and adults. It aligns well with the reference answer, offering a clear and comprehensive response to the user's query.</t>
+          <t>The generated answer is relevant and fully correct, providing specific details about the coverage of flu vaccines under the ITPEU Health and Welfare Plan, including the effective date and the categorization of the vaccine under preventive care for both children and adults. It aligns well with the reference answer, offering a clear and comprehensive response to the user's query.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant and correct, effectively summarizing the key points from the reference answer without any mistakes.</t>
+          <t>The generated answer is relevant and fully correct, accurately summarizing the key points from the reference answer without any mistakes.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -2089,11 +2089,11 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>The generated answer is relevant and fully correct, providing clear information that aligns well with the reference answer. It explains the impact of a reduction in work hours on benefit eligibility and the option to maintain benefits at the employee's own expense, which directly addresses the user's query.</t>
+          <t>The generated answer is relevant and mostly correct in addressing the user's concern about maintaining coverage levels after a reduction in work hours. It correctly states that the employee and their family can maintain their benefits at their own expense, which aligns with the reference answer. However, it introduces the term "Qualifying Event" without explaining it, which might slightly confuse users unfamiliar with insurance terminology. Despite this, it effectively communicates the main point that benefits can be maintained despite a reduction in hours, just like the reference answer.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>The generated answer is relevant and fully correct, providing clear information that treatment for mental illness is not covered by the plan, and it elaborates on what is considered a mental health disorder according to the plan's definitions.</t>
+          <t>The generated answer is highly relevant and correct, providing specific details about the exclusion of mental health disorder treatments from the plan, and even expands on the definition of mental health disorders as outlined in the plan. It aligns well with the reference answer's information regarding the exclusion of mental health treatment.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>The score is 1.00 because the actual output perfectly aligns with the information provided in the retrieval context, showcasing a high level of faithfulness with no contradictions present. Great job!</t>
+          <t>The score is 1.00 because the actual output perfectly aligns with the information presented in the retrieval context, showcasing a high level of faithfulness without any contradictions.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>The score is 1.00 because there are no contradictions present, indicating a perfect alignment between the actual output and the retrieval context. Great job on maintaining accuracy!</t>
+          <t>The score is 1.00 because there are no contradictions, indicating perfect alignment between the actual output and the retrieval context. Great job on maintaining accuracy!</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>The score is 1.00 because the actual output perfectly aligns with the information provided in the retrieval context, showing no contradictions. Great job on maintaining accuracy!</t>
+          <t>The score is 1.00 because there are no contradictions, indicating perfect alignment between the actual output and the retrieval context. Great job!</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>The score is 1.00 because the actual output perfectly aligns with the retrieval context without any contradictions. Great job!</t>
+          <t>The score is 1.00 because the actual output perfectly aligns with the retrieval context, showing no contradictions. Great job on maintaining accuracy!</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>The score is 1.00 because there are no contradictions present, indicating a perfect alignment between the actual output and the retrieval context. Great job on maintaining accuracy and faithfulness!</t>
+          <t>The score is 1.00 because the actual output perfectly aligns with the information provided in the retrieval context, with no contradictions present. Great job!</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -2378,11 +2378,11 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>The score is 0.80 because the actual output inaccurately claims that conditions related to drug, alcohol, or chemical dependency are not covered under the plan, which contradicts the retrieval context. The context specifies that Mental Health Disorder excludes conditions related to substance dependency but does not explicitly mention coverage exclusions for substance dependency.</t>
+          <t>The score is 1.00 because there are no contradictions, indicating perfect alignment between the actual output and the retrieval context. Great job!</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -2428,7 +2428,7 @@
         <v>144809</v>
       </c>
       <c r="B2" t="n">
-        <v>13303</v>
+        <v>12150</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
